--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="133">
   <si>
     <t>line|行号</t>
   </si>
@@ -434,77 +434,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"鱼币*1000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*5000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_3d_fish_lock",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"prop_3d_fish_frozen",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"锁定*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"冰冻*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*1000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*2000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*10000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"锁定*5",</t>
-  </si>
-  <si>
-    <t>"冰冻*5",</t>
-  </si>
-  <si>
-    <t>"鱼币*2000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*5000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*20000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*30000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*20000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*30000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*50000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鱼币*100000",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -563,6 +497,36 @@
   <si>
     <t>icon_id|相同类型图标为单独ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X1000",</t>
+  </si>
+  <si>
+    <t>"X5000",</t>
+  </si>
+  <si>
+    <t>"X2000",</t>
+  </si>
+  <si>
+    <t>"X10000",</t>
+  </si>
+  <si>
+    <t>"X20000",</t>
+  </si>
+  <si>
+    <t>"X30000",</t>
+  </si>
+  <si>
+    <t>"X50000",</t>
+  </si>
+  <si>
+    <t>"X100000",</t>
+  </si>
+  <si>
+    <t>"X3",</t>
+  </si>
+  <si>
+    <t>"X5",</t>
   </si>
 </sst>
 </file>
@@ -987,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1059,7 +1023,7 @@
         <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1085,7 +1049,7 @@
         <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1108,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1134,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1160,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1186,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1212,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1238,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1267,7 +1231,7 @@
         <v>115</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1293,7 +1257,7 @@
         <v>115</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1319,7 +1283,7 @@
         <v>115</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1345,7 +1309,7 @@
         <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1371,7 +1335,7 @@
         <v>115</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1397,7 +1361,7 @@
         <v>115</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1423,7 +1387,7 @@
         <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1446,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1472,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1498,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1524,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1550,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1576,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1605,7 +1569,7 @@
         <v>115</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1631,7 +1595,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1657,7 +1621,7 @@
         <v>115</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1683,7 +1647,7 @@
         <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1709,7 +1673,7 @@
         <v>115</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1735,7 +1699,7 @@
         <v>115</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1761,7 +1725,7 @@
         <v>115</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1787,7 +1751,7 @@
         <v>115</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1813,7 +1777,7 @@
         <v>115</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1839,7 +1803,7 @@
         <v>115</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1865,7 +1829,7 @@
         <v>115</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -1891,7 +1855,7 @@
         <v>115</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1917,7 +1881,7 @@
         <v>115</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1943,7 +1907,7 @@
         <v>115</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1969,7 +1933,7 @@
         <v>115</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1995,7 +1959,7 @@
         <v>115</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2021,7 +1985,7 @@
         <v>115</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2047,7 +2011,7 @@
         <v>115</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2073,7 +2037,7 @@
         <v>115</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2099,7 +2063,7 @@
         <v>115</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2125,7 +2089,7 @@
         <v>115</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2151,7 +2115,7 @@
         <v>115</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2177,7 +2141,7 @@
         <v>115</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2203,7 +2167,7 @@
         <v>115</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2229,7 +2193,7 @@
         <v>115</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2255,7 +2219,7 @@
         <v>115</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2281,7 +2245,7 @@
         <v>115</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2307,7 +2271,7 @@
         <v>115</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2333,7 +2297,7 @@
         <v>115</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2359,7 +2323,7 @@
         <v>115</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -2385,7 +2349,7 @@
         <v>115</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2411,7 +2375,7 @@
         <v>115</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -2437,7 +2401,7 @@
         <v>115</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2463,7 +2427,7 @@
         <v>115</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -2489,7 +2453,7 @@
         <v>115</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -2515,7 +2479,7 @@
         <v>115</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -2541,7 +2505,7 @@
         <v>115</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -2567,7 +2531,7 @@
         <v>115</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -2593,7 +2557,7 @@
         <v>115</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -2619,7 +2583,7 @@
         <v>115</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -2645,7 +2609,7 @@
         <v>115</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -2671,7 +2635,7 @@
         <v>115</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -2697,7 +2661,7 @@
         <v>115</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -2723,7 +2687,7 @@
         <v>115</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -2749,7 +2713,7 @@
         <v>115</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -2775,7 +2739,7 @@
         <v>115</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -2801,7 +2765,7 @@
         <v>115</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -2827,7 +2791,7 @@
         <v>115</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -2853,7 +2817,7 @@
         <v>115</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -2879,7 +2843,7 @@
         <v>115</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2924,10 +2888,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2938,10 +2902,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2952,10 +2916,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2966,10 +2930,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2980,10 +2944,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -2994,10 +2958,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3008,10 +2972,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -3022,10 +2986,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3036,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -3050,10 +3014,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -3064,10 +3028,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -3078,10 +3042,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3092,10 +3056,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -3106,10 +3070,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -3120,10 +3084,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -3134,10 +3098,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -3148,10 +3112,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -3162,10 +3126,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -3176,10 +3140,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -3190,10 +3154,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
   <si>
     <t>line|行号</t>
   </si>
@@ -500,6 +500,34 @@
     <t>"X10000",</t>
   </si>
   <si>
+    <t>"X3",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+  </si>
+  <si>
+    <t>"X1",</t>
+  </si>
+  <si>
+    <t>rw_icon_bd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"X20000",</t>
   </si>
   <si>
@@ -510,30 +538,6 @@
   </si>
   <si>
     <t>"X100000",</t>
-  </si>
-  <si>
-    <t>"X3",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-  </si>
-  <si>
-    <t>"X1",</t>
-  </si>
-  <si>
-    <t>rw_icon_bd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -959,7 +963,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1098,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1112,7 +1116,7 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1124,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1150,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1176,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1202,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1410,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1436,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1462,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1488,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1514,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1540,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1725,7 +1729,7 @@
         <v>114</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2063,7 +2067,7 @@
         <v>114</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2193,7 +2197,7 @@
         <v>114</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2219,7 +2223,7 @@
         <v>114</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2245,7 +2249,7 @@
         <v>114</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2271,7 +2275,7 @@
         <v>114</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2297,7 +2301,7 @@
         <v>114</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2323,7 +2327,7 @@
         <v>114</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2349,7 +2353,7 @@
         <v>114</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2375,7 +2379,7 @@
         <v>114</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2401,7 +2405,7 @@
         <v>114</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2427,7 +2431,7 @@
         <v>114</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2453,7 +2457,7 @@
         <v>114</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2479,7 +2483,7 @@
         <v>114</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2505,7 +2509,7 @@
         <v>114</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2531,7 +2535,7 @@
         <v>114</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2557,7 +2561,7 @@
         <v>114</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2583,7 +2587,7 @@
         <v>114</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2609,7 +2613,7 @@
         <v>114</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2635,7 +2639,7 @@
         <v>114</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2661,7 +2665,7 @@
         <v>114</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2687,7 +2691,7 @@
         <v>114</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2713,7 +2717,7 @@
         <v>114</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2739,7 +2743,7 @@
         <v>114</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2765,7 +2769,7 @@
         <v>114</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2791,7 +2795,7 @@
         <v>114</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2817,7 +2821,7 @@
         <v>114</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2843,7 +2847,7 @@
         <v>114</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -193,9 +193,6 @@
     <t>捕获巨大燕鱼20条（1000倍炮以上）</t>
   </si>
   <si>
-    <t>捕获30倍以上的鱼30条（1000倍炮以上）</t>
-  </si>
-  <si>
     <t>捕获50倍以上的鱼20条（1000倍炮以上）</t>
   </si>
   <si>
@@ -244,38 +241,6 @@
     <t>捕获黄金锤头鲨20条（5000倍炮以上）</t>
   </si>
   <si>
-    <r>
-      <t>捕获boss鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>条（5000倍炮以上）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼50条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鱼活动鱼10条（5000倍炮以上）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -283,10 +248,6 @@
     <t>捕鱼获得金币1亿（10000倍炮以上）</t>
   </si>
   <si>
-    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>捕获boss鱼5条（10000倍炮以上）</t>
   </si>
   <si>
@@ -294,9 +255,6 @@
   </si>
   <si>
     <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
   </si>
   <si>
     <t>3dby_icon_yu29</t>
@@ -538,6 +496,25 @@
   </si>
   <si>
     <t>"X100000",</t>
+  </si>
+  <si>
+    <t>捕获黄金鱼30条（5000倍炮以上）</t>
+  </si>
+  <si>
+    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获boss鱼5条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -963,7 +940,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E2" sqref="E2:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -989,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1012,7 +989,7 @@
         <v>15001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -1024,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1038,7 +1015,7 @@
         <v>15002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
@@ -1050,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1064,7 +1041,7 @@
         <v>15003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -1076,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1090,7 +1067,7 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -1102,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1116,7 +1093,7 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1128,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1142,7 +1119,7 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
@@ -1154,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1168,7 +1145,7 @@
         <v>15007</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
@@ -1180,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1194,7 +1171,7 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -1206,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1220,7 +1197,7 @@
         <v>15009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -1232,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1246,7 +1223,7 @@
         <v>15010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
@@ -1258,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1272,7 +1249,7 @@
         <v>15011</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -1284,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1298,7 +1275,7 @@
         <v>15012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -1310,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1324,7 +1301,7 @@
         <v>15013</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
@@ -1336,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1350,7 +1327,7 @@
         <v>15014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
@@ -1362,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1376,7 +1353,7 @@
         <v>15015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
@@ -1388,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1402,7 +1379,7 @@
         <v>15016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -1414,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1428,7 +1405,7 @@
         <v>15017</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
@@ -1440,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1454,7 +1431,7 @@
         <v>15018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
@@ -1466,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1480,7 +1457,7 @@
         <v>15019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D20" s="11">
         <v>2</v>
@@ -1492,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1506,7 +1483,7 @@
         <v>15020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
@@ -1518,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1532,7 +1509,7 @@
         <v>15021</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
@@ -1544,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1558,7 +1535,7 @@
         <v>15022</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D23" s="11">
         <v>2</v>
@@ -1570,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1584,7 +1561,7 @@
         <v>15023</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
@@ -1596,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1610,7 +1587,7 @@
         <v>15024</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
@@ -1622,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1636,7 +1613,7 @@
         <v>15025</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
@@ -1648,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1662,7 +1639,7 @@
         <v>15026</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -1674,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1688,7 +1665,7 @@
         <v>15027</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -1700,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1714,7 +1691,7 @@
         <v>15028</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
@@ -1726,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1740,7 +1717,7 @@
         <v>15029</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -1752,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1766,7 +1743,7 @@
         <v>15030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -1778,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1792,7 +1769,7 @@
         <v>15031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
@@ -1804,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1818,7 +1795,7 @@
         <v>15032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -1830,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1844,7 +1821,7 @@
         <v>15033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -1856,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1870,7 +1847,7 @@
         <v>15034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
@@ -1882,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1896,7 +1873,7 @@
         <v>15035</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
@@ -1908,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1922,7 +1899,7 @@
         <v>15036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
@@ -1934,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1948,7 +1925,7 @@
         <v>15037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
@@ -1960,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1974,7 +1951,7 @@
         <v>15038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
@@ -1986,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -2000,7 +1977,7 @@
         <v>15039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
@@ -2012,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -2026,7 +2003,7 @@
         <v>15040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
@@ -2038,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2052,7 +2029,7 @@
         <v>15041</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -2064,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2078,7 +2055,7 @@
         <v>15042</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
@@ -2090,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2104,7 +2081,7 @@
         <v>15043</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -2116,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2130,7 +2107,7 @@
         <v>15044</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -2142,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2156,7 +2133,7 @@
         <v>15045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -2168,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2182,22 +2159,22 @@
         <v>15046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2208,22 +2185,22 @@
         <v>15047</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2234,22 +2211,22 @@
         <v>15048</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2260,22 +2237,22 @@
         <v>15049</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D50" s="11">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2286,22 +2263,22 @@
         <v>15050</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D51" s="11">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2312,22 +2289,22 @@
         <v>15051</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2338,22 +2315,22 @@
         <v>15052</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2364,22 +2341,22 @@
         <v>15053</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D54" s="11">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2390,22 +2367,22 @@
         <v>15054</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2416,22 +2393,22 @@
         <v>15055</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2442,22 +2419,22 @@
         <v>15056</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2468,22 +2445,22 @@
         <v>15057</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2494,22 +2471,22 @@
         <v>15058</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2520,22 +2497,22 @@
         <v>15059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2546,22 +2523,22 @@
         <v>15060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2572,22 +2549,22 @@
         <v>15061</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2598,22 +2575,22 @@
         <v>15062</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2624,22 +2601,22 @@
         <v>15063</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2650,22 +2627,22 @@
         <v>15064</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>74</v>
+      <c r="E65" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2676,22 +2653,22 @@
         <v>15065</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2702,22 +2679,22 @@
         <v>15066</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2728,22 +2705,22 @@
         <v>15067</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2754,22 +2731,22 @@
         <v>15068</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2780,22 +2757,22 @@
         <v>15069</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2806,22 +2783,22 @@
         <v>15070</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2832,22 +2809,22 @@
         <v>15071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>81</v>
+      <c r="E72" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2893,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2907,10 +2884,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2921,10 +2898,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2935,10 +2912,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2949,10 +2926,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -2963,10 +2940,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -2977,10 +2954,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2991,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3005,10 +2982,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -3019,10 +2996,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -3033,10 +3010,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -3047,10 +3024,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3061,10 +3038,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -3075,10 +3052,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -3089,10 +3066,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -3103,10 +3080,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -3117,10 +3094,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -3131,10 +3108,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -3145,10 +3122,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -3159,10 +3136,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -509,12 +509,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"100福利券，10福袋",</t>
-  </si>
-  <si>
-    <t>"500福利券，10福袋",</t>
-  </si>
-  <si>
     <t>sta_t|开始时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -523,10 +517,16 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"100福利券",</t>
-  </si>
-  <si>
-    <t>"500福利券",</t>
+    <t>"50福利券",</t>
+  </si>
+  <si>
+    <t>"50福利券，10福袋",</t>
+  </si>
+  <si>
+    <t>"10福利券",</t>
+  </si>
+  <si>
+    <t>"10福利券，10福袋",</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2872,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2896,10 +2896,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2983,7 +2983,7 @@
         <v>111</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2997,7 +2997,7 @@
         <v>111</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3011,7 +3011,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3025,7 +3025,7 @@
         <v>111</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3039,7 +3039,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3053,7 +3053,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3067,7 +3067,7 @@
         <v>111</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3081,7 +3081,7 @@
         <v>111</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3095,7 +3095,7 @@
         <v>111</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3109,7 +3109,7 @@
         <v>111</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3123,7 +3123,7 @@
         <v>111</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3137,7 +3137,7 @@
         <v>111</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3151,7 +3151,7 @@
         <v>111</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3165,7 +3165,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3179,7 +3179,7 @@
         <v>111</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3193,7 +3193,7 @@
         <v>110</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3213,7 +3213,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3233,7 +3233,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3253,7 +3253,7 @@
         <v>110</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3273,7 +3273,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3293,7 +3293,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3313,7 +3313,7 @@
         <v>111</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3333,7 +3333,7 @@
         <v>111</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3353,7 +3353,7 @@
         <v>111</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3373,7 +3373,7 @@
         <v>111</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3393,7 +3393,7 @@
         <v>111</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3413,7 +3413,7 @@
         <v>111</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3433,7 +3433,7 @@
         <v>111</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3453,7 +3453,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3473,7 +3473,7 @@
         <v>111</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3493,7 +3493,7 @@
         <v>111</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3513,7 +3513,7 @@
         <v>111</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3533,7 +3533,7 @@
         <v>111</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3553,7 +3553,7 @@
         <v>111</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3573,7 +3573,7 @@
         <v>111</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="152">
   <si>
     <t>line|行号</t>
   </si>
@@ -523,6 +523,63 @@
   <si>
     <t>"50福利券","10福袋",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur_path|福袋显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>act_005_fudai_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>act_005_fudai_",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -2865,10 +2922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2876,9 +2933,10 @@
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="37.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2897,8 +2955,11 @@
       <c r="F1" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2912,7 +2973,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2926,7 +2987,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2940,7 +3001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2954,7 +3015,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2968,7 +3029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2982,7 +3043,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2996,7 +3057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3010,7 +3071,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3024,7 +3085,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3038,7 +3099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3052,7 +3113,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3066,7 +3127,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3080,7 +3141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3094,7 +3155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3108,7 +3169,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3122,7 +3183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3136,7 +3197,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -3150,7 +3211,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -3164,7 +3225,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -3178,7 +3239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3197,8 +3258,11 @@
       <c r="F22" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3217,8 +3281,11 @@
       <c r="F23" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -3237,8 +3304,11 @@
       <c r="F24" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3257,8 +3327,11 @@
       <c r="F25" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3277,8 +3350,11 @@
       <c r="F26" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3297,8 +3373,11 @@
       <c r="F27" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3317,8 +3396,11 @@
       <c r="F28" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -3337,8 +3419,11 @@
       <c r="F29" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -3357,8 +3442,11 @@
       <c r="F30" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -3377,8 +3465,11 @@
       <c r="F31" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -3397,8 +3488,11 @@
       <c r="F32" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -3417,8 +3511,11 @@
       <c r="F33" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -3437,8 +3534,11 @@
       <c r="F34" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -3457,8 +3557,11 @@
       <c r="F35" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -3477,8 +3580,11 @@
       <c r="F36" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -3497,8 +3603,11 @@
       <c r="F37" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -3517,8 +3626,11 @@
       <c r="F38" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -3537,8 +3649,11 @@
       <c r="F39" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -3557,8 +3672,11 @@
       <c r="F40" s="17">
         <v>1613404799</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -3576,6 +3694,9 @@
       </c>
       <c r="F41" s="17">
         <v>1613404799</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="146">
   <si>
     <t>line|行号</t>
   </si>
@@ -496,24 +496,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_flq1","act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_ty_by_drop_7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_ty_by_drop_7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","act_ty_by_drop_7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"10福利券","10福袋",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -525,61 +507,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cur_path|福袋显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>act_005_fudai_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>act_005_fudai_",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2924,19 +2856,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.5" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2955,11 +2888,8 @@
       <c r="F1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2973,7 +2903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2987,7 +2917,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3001,7 +2931,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3015,7 +2945,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3029,7 +2959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3043,7 +2973,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3057,7 +2987,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3071,7 +3001,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3085,7 +3015,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3099,7 +3029,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3113,7 +3043,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3127,7 +3057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3141,7 +3071,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3155,7 +3085,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3247,10 +3177,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3258,9 +3188,7 @@
       <c r="F22" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
@@ -3270,10 +3198,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3281,9 +3209,7 @@
       <c r="F23" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
@@ -3293,10 +3219,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3304,9 +3230,7 @@
       <c r="F24" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
@@ -3316,10 +3240,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3327,9 +3251,7 @@
       <c r="F25" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
@@ -3339,10 +3261,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3350,9 +3272,7 @@
       <c r="F26" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
@@ -3362,10 +3282,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3373,9 +3293,7 @@
       <c r="F27" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
@@ -3385,10 +3303,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3396,9 +3314,7 @@
       <c r="F28" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
@@ -3411,7 +3327,7 @@
         <v>144</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3419,9 +3335,7 @@
       <c r="F29" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
@@ -3434,7 +3348,7 @@
         <v>144</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3442,9 +3356,7 @@
       <c r="F30" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
@@ -3457,7 +3369,7 @@
         <v>144</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3465,9 +3377,7 @@
       <c r="F31" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
@@ -3480,7 +3390,7 @@
         <v>144</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3488,9 +3398,7 @@
       <c r="F32" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
@@ -3503,7 +3411,7 @@
         <v>144</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3511,9 +3419,7 @@
       <c r="F33" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
@@ -3526,7 +3432,7 @@
         <v>144</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3534,9 +3440,7 @@
       <c r="F34" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
@@ -3549,7 +3453,7 @@
         <v>144</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3557,9 +3461,7 @@
       <c r="F35" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
@@ -3572,7 +3474,7 @@
         <v>144</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3580,9 +3482,7 @@
       <c r="F36" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
@@ -3595,7 +3495,7 @@
         <v>144</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3603,9 +3503,7 @@
       <c r="F37" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
@@ -3618,7 +3516,7 @@
         <v>144</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3626,9 +3524,7 @@
       <c r="F38" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
@@ -3641,7 +3537,7 @@
         <v>144</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3649,9 +3545,7 @@
       <c r="F39" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
@@ -3664,7 +3558,7 @@
         <v>144</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3672,9 +3566,7 @@
       <c r="F40" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
@@ -3687,7 +3579,7 @@
         <v>144</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>
@@ -3695,9 +3587,7 @@
       <c r="F41" s="17">
         <v>1613404799</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="140">
   <si>
     <t>line|行号</t>
   </si>
@@ -513,6 +513,20 @@
   </si>
   <si>
     <t>"500福利券，10福袋",</t>
+  </si>
+  <si>
+    <t>sta_t|开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_t|结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100福利券",</t>
+  </si>
+  <si>
+    <t>"500福利券",</t>
   </si>
 </sst>
 </file>
@@ -563,7 +577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +639,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +677,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2834,19 +2869,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2859,285 +2895,691 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="E1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>25</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <v>40</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <v>45</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>50</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>55</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13">
+        <v>65</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13">
+        <v>70</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
+        <v>75</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13">
+        <v>80</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13">
+        <v>85</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>90</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13">
+        <v>95</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13">
+        <v>100</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>105</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E22" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
         <v>110</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E23" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>115</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D24" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E24" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>120</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D25" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="E25" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B26" s="15">
+        <v>125</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D26" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="E26" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>130</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>135</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>140</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>145</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B31" s="15">
+        <v>150</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D31" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="E31" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>155</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>160</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>165</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>170</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F35" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B36" s="15">
+        <v>175</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D36" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="E36" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="15">
+        <v>180</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15">
+        <v>185</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
+        <v>190</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>195</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B41" s="15">
+        <v>200</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D41" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>65</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>80</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>90</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>95</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>135</v>
+      <c r="E41" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1613404799</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -2872,7 +2872,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3187,7 +3187,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="15">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>110</v>
@@ -3207,7 +3207,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="15">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>110</v>
@@ -3227,7 +3227,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>110</v>
@@ -3247,7 +3247,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="15">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>110</v>
@@ -3267,7 +3267,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="15">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>110</v>
@@ -3287,7 +3287,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="15">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>111</v>
@@ -3307,7 +3307,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>111</v>
@@ -3327,7 +3327,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="15">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>111</v>
@@ -3347,7 +3347,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="15">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>111</v>
@@ -3367,7 +3367,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>111</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="15">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>111</v>
@@ -3407,7 +3407,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="15">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>111</v>
@@ -3427,7 +3427,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="15">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>111</v>
@@ -3447,7 +3447,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="15">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>111</v>
@@ -3467,7 +3467,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>111</v>
@@ -3487,7 +3487,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="15">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>111</v>
@@ -3507,7 +3507,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="15">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>111</v>
@@ -3527,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>111</v>
@@ -3547,7 +3547,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="15">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>111</v>
@@ -3567,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>111</v>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="149">
   <si>
     <t>line|行号</t>
   </si>
@@ -389,51 +389,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3dby_icon_hedansp_1_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"3dby_icon_hedansp_2_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_id|相同类型图标为单独ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -520,13 +475,54 @@
     <t>"50福利券",</t>
   </si>
   <si>
-    <t>"50福利券，10福袋",</t>
-  </si>
-  <si>
     <t>"10福利券",</t>
   </si>
   <si>
-    <t>"10福利券，10福袋",</t>
+    <t>"ty_icon_flq1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2","act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2","act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -972,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -999,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1037,7 +1033,7 @@
         <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1063,7 +1059,7 @@
         <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1086,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1112,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1126,7 +1122,7 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1138,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1164,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1190,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1216,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1245,7 +1241,7 @@
         <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1271,7 +1267,7 @@
         <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1297,7 +1293,7 @@
         <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1323,7 +1319,7 @@
         <v>109</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1349,7 +1345,7 @@
         <v>109</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1375,7 +1371,7 @@
         <v>109</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1401,7 +1397,7 @@
         <v>109</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1424,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1450,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1476,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1502,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1528,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1554,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1583,7 +1579,7 @@
         <v>109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1609,7 +1605,7 @@
         <v>109</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1635,7 +1631,7 @@
         <v>109</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1661,7 +1657,7 @@
         <v>109</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1687,7 +1683,7 @@
         <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1713,7 +1709,7 @@
         <v>109</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1739,7 +1735,7 @@
         <v>109</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1765,7 +1761,7 @@
         <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1791,7 +1787,7 @@
         <v>109</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1817,7 +1813,7 @@
         <v>109</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1843,7 +1839,7 @@
         <v>109</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1869,7 +1865,7 @@
         <v>109</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1895,7 +1891,7 @@
         <v>109</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1921,7 +1917,7 @@
         <v>109</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1947,7 +1943,7 @@
         <v>109</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1973,7 +1969,7 @@
         <v>109</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1999,7 +1995,7 @@
         <v>109</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -2025,7 +2021,7 @@
         <v>109</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -2051,7 +2047,7 @@
         <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2077,7 +2073,7 @@
         <v>109</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2103,7 +2099,7 @@
         <v>109</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2129,7 +2125,7 @@
         <v>109</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2155,7 +2151,7 @@
         <v>109</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2181,7 +2177,7 @@
         <v>109</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2198,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2207,7 +2203,7 @@
         <v>109</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2233,7 +2229,7 @@
         <v>109</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2259,7 +2255,7 @@
         <v>109</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2285,7 +2281,7 @@
         <v>109</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2311,7 +2307,7 @@
         <v>109</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2337,7 +2333,7 @@
         <v>109</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2363,7 +2359,7 @@
         <v>109</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2389,7 +2385,7 @@
         <v>109</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2415,7 +2411,7 @@
         <v>109</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2441,7 +2437,7 @@
         <v>109</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2467,7 +2463,7 @@
         <v>109</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2493,7 +2489,7 @@
         <v>109</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2519,7 +2515,7 @@
         <v>109</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2545,7 +2541,7 @@
         <v>109</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2571,7 +2567,7 @@
         <v>109</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2597,7 +2593,7 @@
         <v>109</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2623,7 +2619,7 @@
         <v>109</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2640,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2649,7 +2645,7 @@
         <v>109</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2666,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2675,7 +2671,7 @@
         <v>109</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2701,7 +2697,7 @@
         <v>109</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2727,7 +2723,7 @@
         <v>109</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2744,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2753,7 +2749,7 @@
         <v>109</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2779,7 +2775,7 @@
         <v>109</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2805,7 +2801,7 @@
         <v>109</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2831,7 +2827,7 @@
         <v>109</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2848,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2857,7 +2853,7 @@
         <v>109</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2868,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2896,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2910,10 +2906,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2924,10 +2920,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2938,10 +2934,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2952,10 +2948,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2966,10 +2962,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2980,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2994,10 +2990,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3008,10 +3004,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3022,10 +3018,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3036,10 +3032,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3050,10 +3046,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3064,10 +3060,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -3078,10 +3074,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3092,10 +3088,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3106,10 +3102,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3120,10 +3116,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -3134,10 +3130,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3148,10 +3144,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3162,10 +3158,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3176,10 +3172,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3190,10 +3186,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3210,10 +3206,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3230,10 +3226,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3250,10 +3246,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3270,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3290,10 +3286,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3310,10 +3306,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3330,10 +3326,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3350,10 +3346,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3370,10 +3366,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3390,10 +3386,10 @@
         <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3410,10 +3406,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3430,10 +3426,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3450,10 +3446,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3470,10 +3466,10 @@
         <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3490,10 +3486,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3510,10 +3506,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3530,10 +3526,10 @@
         <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3550,10 +3546,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3570,10 +3566,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>
@@ -3585,5 +3581,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
   <si>
     <t>line|行号</t>
   </si>
@@ -273,10 +273,6 @@
   </si>
   <si>
     <t>"3dby_btn_jb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -883,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,7 +1007,7 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
@@ -1037,7 +1033,7 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -1063,13 +1059,13 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1089,13 +1085,13 @@
         <v>15007</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1115,13 +1111,13 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1147,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1173,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1225,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1361,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1387,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1413,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>71</v>
@@ -1439,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1465,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1485,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1511,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1537,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1563,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1589,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1650,7 +1646,7 @@
         <v>65</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1728,7 +1724,7 @@
         <v>65</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1745,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1849,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1875,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1901,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1988,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2066,7 +2062,7 @@
         <v>65</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2109,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2118,7 +2114,7 @@
         <v>65</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2144,7 +2140,7 @@
         <v>65</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2170,7 +2166,7 @@
         <v>65</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2196,7 +2192,7 @@
         <v>65</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2222,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2248,7 +2244,7 @@
         <v>65</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2274,7 +2270,7 @@
         <v>65</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2300,7 +2296,7 @@
         <v>65</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2326,7 +2322,7 @@
         <v>65</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2352,7 +2348,7 @@
         <v>65</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2378,7 +2374,7 @@
         <v>65</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2404,7 +2400,7 @@
         <v>65</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2430,7 +2426,7 @@
         <v>65</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2456,7 +2452,7 @@
         <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2482,7 +2478,7 @@
         <v>65</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2508,7 +2504,7 @@
         <v>65</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2534,7 +2530,7 @@
         <v>65</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2551,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2560,7 +2556,7 @@
         <v>65</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2577,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2586,7 +2582,7 @@
         <v>65</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2603,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2612,7 +2608,7 @@
         <v>65</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2638,7 +2634,7 @@
         <v>65</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2655,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2664,7 +2660,7 @@
         <v>65</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2690,7 +2686,7 @@
         <v>65</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2716,7 +2712,7 @@
         <v>65</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2742,7 +2738,7 @@
         <v>65</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2759,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2768,7 +2764,7 @@
         <v>65</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2809,10 +2805,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2823,10 +2819,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2837,10 +2833,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2851,10 +2847,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2865,10 +2861,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2879,10 +2875,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2893,10 +2889,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2907,10 +2903,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2921,10 +2917,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2935,10 +2931,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2949,10 +2945,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2963,10 +2959,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2977,10 +2973,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2991,10 +2987,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3005,10 +3001,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3019,10 +3015,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3033,10 +3029,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3047,10 +3043,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3061,10 +3057,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3075,10 +3071,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3089,10 +3085,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3103,10 +3099,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3124,10 +3120,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3145,10 +3141,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3166,10 +3162,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3187,10 +3183,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3208,10 +3204,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3229,10 +3225,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3250,10 +3246,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3271,10 +3267,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3292,10 +3288,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3313,10 +3309,10 @@
         <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3334,10 +3330,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3355,10 +3351,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3376,10 +3372,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3397,10 +3393,10 @@
         <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3418,10 +3414,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3439,10 +3435,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3460,10 +3456,10 @@
         <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3481,10 +3477,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3502,10 +3498,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="122">
   <si>
     <t>line|行号</t>
   </si>
@@ -165,281 +165,289 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>rw_icon_ljpd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_icon_yu24</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_gb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_icon_yb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_id|相同类型图标为单独ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X1000",</t>
+  </si>
+  <si>
+    <t>"X5000",</t>
+  </si>
+  <si>
+    <t>"X2000",</t>
+  </si>
+  <si>
+    <t>"X10000",</t>
+  </si>
+  <si>
+    <t>"X3",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+  </si>
+  <si>
+    <t>"X1",</t>
+  </si>
+  <si>
+    <t>"3dby_btn_kb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_btn_jb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X20000",</t>
+  </si>
+  <si>
+    <t>"X30000",</t>
+  </si>
+  <si>
+    <t>"X50000",</t>
+  </si>
+  <si>
+    <t>"X100000",</t>
+  </si>
+  <si>
+    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta_t|开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_t|结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券",</t>
+  </si>
+  <si>
+    <t>"10福利券",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+  </si>
+  <si>
+    <t>"50福利券","10福袋",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金灯笼鱼5条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金海龟5只</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获大金鲨5条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼8条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼3条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获20倍以上的鱼10条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获大金鲨8条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼10条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼3条（500倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获boss鱼3条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获黄金鱼30条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼8条（5000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_bd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任意鱼10条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币3万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币4万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任意鱼20条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼任意鱼30条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮数100发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮数200发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币3万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币4万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗金币5万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>rw_icon_ljpd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rw_icon_mrzz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_bh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_hd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_gb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_gb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_yb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_id|相同类型图标为单独ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X1000",</t>
-  </si>
-  <si>
-    <t>"X5000",</t>
-  </si>
-  <si>
-    <t>"X2000",</t>
-  </si>
-  <si>
-    <t>"X10000",</t>
-  </si>
-  <si>
-    <t>"X3",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-  </si>
-  <si>
-    <t>"X1",</t>
-  </si>
-  <si>
-    <t>"3dby_btn_kb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3dby_btn_jb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"X20000",</t>
-  </si>
-  <si>
-    <t>"X30000",</t>
-  </si>
-  <si>
-    <t>"X50000",</t>
-  </si>
-  <si>
-    <t>"X100000",</t>
-  </si>
-  <si>
-    <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta_t|开始时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_t|结束时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券",</t>
-  </si>
-  <si>
-    <t>"10福利券",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10福利券","10福袋",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券","10福袋",</t>
-  </si>
-  <si>
-    <t>"50福利券","10福袋",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","act_005_fudai_act_ty_by_drop_7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金灯笼鱼5条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金海龟5只</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获大金鲨5条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼8条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼3条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获20倍以上的鱼10条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获大金鲨8条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼10条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼3条（500倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获30倍以上的鱼20条（1000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获boss鱼3条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获黄金鱼30条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼8条（5000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_bd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_js</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_kb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_jb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼任意鱼10条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗金币3万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗金币4万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼任意鱼20条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼任意鱼30条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计开炮数100发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计开炮数200发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗金币3万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗金币4万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗金币5万</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +895,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -936,22 +944,22 @@
         <v>15001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -962,22 +970,22 @@
         <v>15002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -988,22 +996,22 @@
         <v>15003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1014,7 +1022,7 @@
         <v>15004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
@@ -1026,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1040,7 +1048,7 @@
         <v>15005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="11">
         <v>2</v>
@@ -1052,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1066,22 +1074,22 @@
         <v>15006</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1092,22 +1100,22 @@
         <v>15007</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1118,22 +1126,22 @@
         <v>15008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1144,22 +1152,22 @@
         <v>15009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1170,22 +1178,22 @@
         <v>15010</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1196,22 +1204,22 @@
         <v>15011</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1222,22 +1230,22 @@
         <v>15012</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1248,22 +1256,22 @@
         <v>15013</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1274,7 +1282,7 @@
         <v>15014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
@@ -1286,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1300,7 +1308,7 @@
         <v>15015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
@@ -1312,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1326,7 +1334,7 @@
         <v>15016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -1338,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1352,7 +1360,7 @@
         <v>15017</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="11">
         <v>2</v>
@@ -1364,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1378,7 +1386,7 @@
         <v>15018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="11">
         <v>2</v>
@@ -1390,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1404,7 +1412,7 @@
         <v>15019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="11">
         <v>2</v>
@@ -1416,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1430,7 +1438,7 @@
         <v>15020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="11">
         <v>2</v>
@@ -1442,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1456,7 +1464,7 @@
         <v>15021</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="11">
         <v>2</v>
@@ -1468,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1488,16 +1496,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1514,16 +1522,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1534,22 +1542,22 @@
         <v>15024</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1560,22 +1568,22 @@
         <v>15025</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1586,22 +1594,22 @@
         <v>15026</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1612,7 +1620,7 @@
         <v>15027</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -1624,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1638,7 +1646,7 @@
         <v>15028</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="11">
         <v>1</v>
@@ -1650,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1664,7 +1672,7 @@
         <v>15029</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -1676,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1690,7 +1698,7 @@
         <v>15030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -1702,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1716,7 +1724,7 @@
         <v>15031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
@@ -1728,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1742,22 +1750,22 @@
         <v>15032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1768,7 +1776,7 @@
         <v>15033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
@@ -1780,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1794,7 +1802,7 @@
         <v>15034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="11">
         <v>2</v>
@@ -1806,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1832,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1846,22 +1854,22 @@
         <v>15036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1872,22 +1880,22 @@
         <v>15037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1898,22 +1906,22 @@
         <v>15038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1924,7 +1932,7 @@
         <v>15039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="11">
         <v>1</v>
@@ -1936,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1950,7 +1958,7 @@
         <v>15040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
@@ -1962,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -1976,7 +1984,7 @@
         <v>15041</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -1988,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2002,7 +2010,7 @@
         <v>15042</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
@@ -2014,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2028,7 +2036,7 @@
         <v>15043</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -2040,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2054,7 +2062,7 @@
         <v>15044</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -2066,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2080,7 +2088,7 @@
         <v>15045</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="11">
         <v>2</v>
@@ -2092,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
@@ -2106,22 +2114,22 @@
         <v>15046</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -2132,7 +2140,7 @@
         <v>15047</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
@@ -2144,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -2158,7 +2166,7 @@
         <v>15048</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="11">
         <v>2</v>
@@ -2170,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2184,7 +2192,7 @@
         <v>15049</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="11">
         <v>2</v>
@@ -2196,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2210,7 +2218,7 @@
         <v>15050</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="11">
         <v>2</v>
@@ -2222,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2236,7 +2244,7 @@
         <v>15051</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
@@ -2248,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2262,7 +2270,7 @@
         <v>15052</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
@@ -2274,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2288,7 +2296,7 @@
         <v>15053</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="D54" s="11">
         <v>1</v>
@@ -2300,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -2314,7 +2322,7 @@
         <v>15054</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="11">
         <v>1</v>
@@ -2326,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -2340,7 +2348,7 @@
         <v>15055</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="11">
         <v>1</v>
@@ -2352,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -2366,7 +2374,7 @@
         <v>15056</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
@@ -2378,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2392,7 +2400,7 @@
         <v>15057</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
@@ -2404,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -2418,7 +2426,7 @@
         <v>15058</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -2430,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -2444,7 +2452,7 @@
         <v>15059</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -2456,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2470,7 +2478,7 @@
         <v>15060</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
@@ -2482,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2496,7 +2504,7 @@
         <v>15061</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
@@ -2508,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2522,7 +2530,7 @@
         <v>15062</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
@@ -2534,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
@@ -2548,22 +2556,22 @@
         <v>15063</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="11">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2574,22 +2582,22 @@
         <v>15064</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2600,22 +2608,22 @@
         <v>15065</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
@@ -2626,7 +2634,7 @@
         <v>15066</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -2638,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
@@ -2652,22 +2660,22 @@
         <v>15067</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -2678,7 +2686,7 @@
         <v>15068</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
@@ -2690,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -2704,7 +2712,7 @@
         <v>15069</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
@@ -2716,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
@@ -2730,7 +2738,7 @@
         <v>15070</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
@@ -2742,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
@@ -2756,22 +2764,22 @@
         <v>15071</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2812,10 +2820,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2826,10 +2834,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2840,10 +2848,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2854,10 +2862,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2868,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2882,10 +2890,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2896,10 +2904,10 @@
         <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2910,10 +2918,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2924,10 +2932,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2938,10 +2946,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2952,10 +2960,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2966,10 +2974,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2980,10 +2988,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2994,10 +3002,10 @@
         <v>65</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3008,10 +3016,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3022,10 +3030,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3036,10 +3044,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3050,10 +3058,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3064,10 +3072,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3078,10 +3086,10 @@
         <v>95</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3092,10 +3100,10 @@
         <v>100</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3106,10 +3114,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="17">
         <v>1612828800</v>
@@ -3127,10 +3135,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="17">
         <v>1612828800</v>
@@ -3148,10 +3156,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="17">
         <v>1612828800</v>
@@ -3169,10 +3177,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="17">
         <v>1612828800</v>
@@ -3190,10 +3198,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="17">
         <v>1612828800</v>
@@ -3211,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="17">
         <v>1612828800</v>
@@ -3232,10 +3240,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="17">
         <v>1612828800</v>
@@ -3253,10 +3261,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="17">
         <v>1612828800</v>
@@ -3274,10 +3282,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="17">
         <v>1612828800</v>
@@ -3295,10 +3303,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="17">
         <v>1612828800</v>
@@ -3316,10 +3324,10 @@
         <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="17">
         <v>1612828800</v>
@@ -3337,10 +3345,10 @@
         <v>60</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="17">
         <v>1612828800</v>
@@ -3358,10 +3366,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="17">
         <v>1612828800</v>
@@ -3379,10 +3387,10 @@
         <v>70</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="17">
         <v>1612828800</v>
@@ -3400,10 +3408,10 @@
         <v>75</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="17">
         <v>1612828800</v>
@@ -3421,10 +3429,10 @@
         <v>80</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="17">
         <v>1612828800</v>
@@ -3442,10 +3450,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="17">
         <v>1612828800</v>
@@ -3463,10 +3471,10 @@
         <v>90</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="17">
         <v>1612828800</v>
@@ -3484,10 +3492,10 @@
         <v>95</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="17">
         <v>1612828800</v>
@@ -3505,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="17">
         <v>1612828800</v>

--- a/config_debug/by3d_shtx_config.xlsx
+++ b/config_debug/by3d_shtx_config.xlsx
@@ -895,7 +895,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,7 +1077,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>106</v>
@@ -1103,7 +1103,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>109</v>
@@ -1129,7 +1129,7 @@
         <v>119</v>
       </c>
       <c r="D9" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>110</v>
@@ -1155,7 +1155,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>111</v>
@@ -1181,7 +1181,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>112</v>
@@ -1207,7 +1207,7 @@
         <v>117</v>
       </c>
       <c r="D12" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>113</v>
